--- a/Data Files/TestData/policy.xlsx
+++ b/Data Files/TestData/policy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="16">
   <si>
     <t>PolicyNo</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>DASD/POLICY/002963</t>
+  </si>
+  <si>
+    <t>DASD/POLICY/002973</t>
+  </si>
+  <si>
+    <t>DASD/POLICY/002975</t>
   </si>
 </sst>
 </file>
@@ -1205,6 +1211,16 @@
         <v>30</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1303,6 +1319,16 @@
         <v>16</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/Data Files/TestData/policy.xlsx
+++ b/Data Files/TestData/policy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="18">
   <si>
     <t>PolicyNo</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>DASD/POLICY/002975</t>
+  </si>
+  <si>
+    <t>DASD/POLICY/002977</t>
+  </si>
+  <si>
+    <t>DASD/POLICY/002979</t>
   </si>
 </sst>
 </file>
@@ -1221,6 +1227,16 @@
         <v>32</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1329,6 +1345,16 @@
         <v>16</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/Data Files/TestData/policy.xlsx
+++ b/Data Files/TestData/policy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20310" windowHeight="8325"/>
+    <workbookView windowWidth="20310" windowHeight="8325" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="policy" sheetId="1" r:id="rId1"/>
@@ -17,24 +17,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
   <si>
     <t>PolicyNo</t>
   </si>
   <si>
-    <t>ActualValue</t>
+    <t>DASD/POLICY/003057</t>
   </si>
   <si>
-    <t>USD 330.00</t>
+    <t>ActualValue</t>
   </si>
   <si>
     <t>Expected Value</t>
   </si>
   <si>
     <t>ClaimRefNo</t>
-  </si>
-  <si>
-    <t>DASD/POLICY/003003</t>
   </si>
 </sst>
 </file>
@@ -63,10 +60,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -78,6 +90,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -97,6 +116,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,6 +153,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -127,7 +169,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,73 +198,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,30 +213,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -252,24 +297,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -318,24 +345,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -343,18 +352,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,10 +407,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -429,6 +452,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -439,21 +477,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,179 +504,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -980,15 +977,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.5714285714286" collapsed="true"/>
+    <col min="1" max="1" width="21.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -996,9 +993,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1010,54 +1007,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1070,25 +1032,20 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="1" max="1" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1108,7 +1065,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.4285714285714" collapsed="true"/>
+    <col min="1" max="1" width="12.4285714285714" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">

--- a/Data Files/TestData/policy.xlsx
+++ b/Data Files/TestData/policy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20310" windowHeight="8325" activeTab="1"/>
+    <workbookView windowWidth="20310" windowHeight="8325"/>
   </bookViews>
   <sheets>
     <sheet name="policy" sheetId="1" r:id="rId1"/>
@@ -17,15 +17,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
   <si>
     <t>PolicyNo</t>
   </si>
   <si>
-    <t>DASD/POLICY/003057</t>
+    <t>DASD/POLICY/003081</t>
+  </si>
+  <si>
+    <t>DASD/POLICY/003083</t>
   </si>
   <si>
     <t>ActualValue</t>
+  </si>
+  <si>
+    <t>USD 660.00</t>
+  </si>
+  <si>
+    <t>USD 990.00</t>
   </si>
   <si>
     <t>Expected Value</t>
@@ -39,12 +48,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -53,32 +62,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <color rgb="FF666666"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -90,47 +83,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,22 +99,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -169,6 +108,73 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -182,6 +188,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -190,7 +205,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,7 +213,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,31 +228,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,6 +300,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -261,139 +372,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,6 +419,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -426,27 +465,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,36 +500,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -504,158 +508,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -977,13 +995,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="21.5714285714286" customWidth="1"/>
   </cols>
@@ -994,8 +1012,13 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1007,20 +1030,30 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1040,12 +1073,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1065,12 +1098,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="12.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/TestData/policy.xlsx
+++ b/Data Files/TestData/policy.xlsx
@@ -17,24 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>PolicyNo</t>
   </si>
   <si>
-    <t>DASD/POLICY/003081</t>
-  </si>
-  <si>
-    <t>DASD/POLICY/003083</t>
-  </si>
-  <si>
     <t>ActualValue</t>
-  </si>
-  <si>
-    <t>USD 660.00</t>
-  </si>
-  <si>
-    <t>USD 990.00</t>
   </si>
   <si>
     <t>Expected Value</t>
@@ -42,18 +30,30 @@
   <si>
     <t>ClaimRefNo</t>
   </si>
+  <si>
+    <t>USD 660.00</t>
+  </si>
+  <si>
+    <t>DASD/POLICY/003173</t>
+  </si>
+  <si>
+    <t>USD 990.00</t>
+  </si>
+  <si>
+    <t>DASD/POLICY/003175</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -62,16 +62,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF666666"/>
-      <name val="Verdana"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -83,9 +92,114 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,126 +212,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -228,13 +222,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,169 +348,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,30 +413,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -465,7 +435,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,6 +455,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -500,11 +479,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,161 +504,167 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -995,15 +986,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5714285714286" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="21.5714285714286" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1011,14 +1002,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1030,30 +1021,30 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1073,12 +1064,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1098,12 +1089,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.4285714285714" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.4285714285714" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
